--- a/biology/Médecine/1701_en_santé_et_médecine/1701_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1701_en_santé_et_médecine/1701_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1701_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1701_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1701 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1701_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1701_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allemagne
-Herman Boerhaave entre à l'Institut de médecine de Leyde, comme successeur de Charles Drelincourt à la chaire de théorie médicale. Dans son discours inaugural, De commendando Hippocratis studio, il affirme prendre le médecin grec comme modèle et développer l'enseignement de la médecine clinique[1].
+Herman Boerhaave entre à l'Institut de médecine de Leyde, comme successeur de Charles Drelincourt à la chaire de théorie médicale. Dans son discours inaugural, De commendando Hippocratis studio, il affirme prendre le médecin grec comme modèle et développer l'enseignement de la médecine clinique.
 Espagne
-La fièvre jaune est connue en Europe depuis les épidémies historiques de Cadix en 1701[2].
+La fièvre jaune est connue en Europe depuis les épidémies historiques de Cadix en 1701.
 France
-9 juin : Philippe d'Orléans meurt à 60 ans d'une hémorragie cérébrale[3].
-Guy Crescent Fagon, premier médecin du roi de 1693 à la mort de Louis XIV, subit lui-même une lithotomie[4].
+9 juin : Philippe d'Orléans meurt à 60 ans d'une hémorragie cérébrale.
+Guy Crescent Fagon, premier médecin du roi de 1693 à la mort de Louis XIV, subit lui-même une lithotomie.
 Grèce
-Le médecin grec Jacopo Pilarino (it) inocule  la variole à des enfants de Constantinople, en espérant prévenir des formes plus sérieuses de cette maladie lorsque les enfants auront grandi. Cependant « les historiens ont des divergences au sujet du véritable succès de ce projet »[1],[5].
+Le médecin grec Jacopo Pilarino (it) inocule  la variole à des enfants de Constantinople, en espérant prévenir des formes plus sérieuses de cette maladie lorsque les enfants auront grandi. Cependant « les historiens ont des divergences au sujet du véritable succès de ce projet »,.
 Italie
-Jean-Baptiste Morgagni est reçu docteur en médecine à Bologne[6].</t>
+Jean-Baptiste Morgagni est reçu docteur en médecine à Bologne.</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1701_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1701_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1701_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1701_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>27 juin : Paul-Jacques Malouin, médecin et chimiste français (mort en 1778)[7],[8],[Note 1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27 juin : Paul-Jacques Malouin, médecin et chimiste français (mort en 1778)[Note 1].</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1701_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1701_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
